--- a/resources/salesforce_dev_api.xlsx
+++ b/resources/salesforce_dev_api.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85410D6B-45D3-0742-B4F0-BACE4CDBF35F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9E5BBA-94A2-1D43-B0C6-C560A4ED0D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" xr2:uid="{5C96B7E0-572E-114A-B63B-4E7BE81933AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Scenario ID</t>
   </si>
@@ -137,15 +136,6 @@
   "Name" : "getNewName",
   "ShippingCity" : "San Francisco"
 }</t>
-  </si>
-  <si>
-    <t>AccountName</t>
-  </si>
-  <si>
-    <t>testAccount</t>
-  </si>
-  <si>
-    <t>salesforceData</t>
   </si>
 </sst>
 </file>
@@ -530,42 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008AD4A7-4A75-6343-982A-DFAEDCAB78FE}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57043D3-8560-8943-BEAE-130D5F0C151A}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="169" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="169" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/salesforce_dev_api.xlsx
+++ b/resources/salesforce_dev_api.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9E5BBA-94A2-1D43-B0C6-C560A4ED0D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63BAA04-5064-2E49-8C3E-F4F409018341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19820" xr2:uid="{5C96B7E0-572E-114A-B63B-4E7BE81933AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Scenario ID</t>
   </si>
@@ -136,6 +136,12 @@
   "Name" : "getNewName",
   "ShippingCity" : "San Francisco"
 }</t>
+  </si>
+  <si>
+    <t>createAccountUsingDataBean</t>
+  </si>
+  <si>
+    <t>Create an account using REST Assured</t>
   </si>
 </sst>
 </file>
@@ -521,13 +527,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57043D3-8560-8943-BEAE-130D5F0C151A}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="169" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="129" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -765,15 +775,41 @@
         <v>24</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
